--- a/Data/Ingredients.xlsx
+++ b/Data/Ingredients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adib Files\Adib - Visual Studio\20251013 FirstWeigh Blazor\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adib Files\Adib - Visual Studio\20251023 FirstWeigh Blazor\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541FB899-E623-4D11-BBBD-720BB83BE020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C29343B-1A2D-4363-8AA4-ED4952C475FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingredients" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>IngredientId</t>
   </si>
@@ -47,101 +47,86 @@
     <t>PackingType</t>
   </si>
   <si>
+    <t>CreatedDate</t>
+  </si>
+  <si>
+    <t>LastModifiedDate</t>
+  </si>
+  <si>
+    <t>LastModifiedBy</t>
+  </si>
+  <si>
+    <t>ING001</t>
+  </si>
+  <si>
+    <t>Flour</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>ING002</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>ING003</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>ING004</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>ING005</t>
+  </si>
+  <si>
+    <t>Cooking Oil</t>
+  </si>
+  <si>
+    <t>ING006</t>
+  </si>
+  <si>
+    <t>Pepper</t>
+  </si>
+  <si>
+    <t>adib</t>
+  </si>
+  <si>
+    <t>ING007</t>
+  </si>
+  <si>
+    <t>Chipsmore</t>
+  </si>
+  <si>
+    <t>ING008</t>
+  </si>
+  <si>
+    <t>Nugget</t>
+  </si>
+  <si>
+    <t>ING009</t>
+  </si>
+  <si>
     <t>UnitOfMeasure</t>
   </si>
   <si>
-    <t>CreatedDate</t>
-  </si>
-  <si>
-    <t>LastModifiedDate</t>
-  </si>
-  <si>
-    <t>LastModifiedBy</t>
-  </si>
-  <si>
-    <t>ING001</t>
-  </si>
-  <si>
-    <t>Flour</t>
+    <t>ING010</t>
   </si>
   <si>
     <t>25kg Bag</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>ING002</t>
-  </si>
-  <si>
-    <t>Sugar</t>
-  </si>
-  <si>
-    <t>50kg Bag</t>
-  </si>
-  <si>
-    <t>ING003</t>
-  </si>
-  <si>
-    <t>Salt</t>
-  </si>
-  <si>
-    <t>ING004</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>1L Bottle</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>ING005</t>
-  </si>
-  <si>
-    <t>Cooking Oil</t>
-  </si>
-  <si>
-    <t>5L Bottle</t>
-  </si>
-  <si>
-    <t>ING006</t>
-  </si>
-  <si>
-    <t>Pepper</t>
-  </si>
-  <si>
-    <t>6kg</t>
-  </si>
-  <si>
-    <t>adib</t>
-  </si>
-  <si>
-    <t>ING007</t>
-  </si>
-  <si>
-    <t>Chipsmore</t>
-  </si>
-  <si>
-    <t>20kg</t>
-  </si>
-  <si>
-    <t>ING008</t>
-  </si>
-  <si>
-    <t>Nugget</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -152,6 +137,11 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -489,25 +479,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,33 +510,30 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2">
         <v>45950.631338784697</v>
@@ -556,128 +542,113 @@
         <v>45950.631338796302</v>
       </c>
       <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45950.631338796302</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45950.631338796302</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45950.631338796302</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45950.631338796302</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2">
-        <v>45950.631338796302</v>
-      </c>
-      <c r="G3" s="2">
-        <v>45950.631338796302</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45950.631338796302</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45950.631338796302</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2">
-        <v>45950.631338796302</v>
-      </c>
-      <c r="G4" s="2">
-        <v>45950.631338796302</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45950.631338796302</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45950.631338796302</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45950.631338796302</v>
-      </c>
-      <c r="G5" s="2">
-        <v>45950.631338796302</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2">
-        <v>45950.631338796302</v>
-      </c>
-      <c r="G6" s="2">
-        <v>45950.631338796302</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2">
         <v>45950.631342592591</v>
@@ -686,24 +657,21 @@
         <v>45950.631338796302</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2">
         <v>45950.640277777777</v>
@@ -712,24 +680,21 @@
         <v>45950.640277777777</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2">
         <v>45950.769444444442</v>
@@ -738,10 +703,57 @@
         <v>45950.769444444442</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45950.769444444442</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45950.769444444442</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45950.640277777777</v>
+      </c>
+      <c r="G11" s="2">
+        <v>45950.640277777777</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
 </file>